--- a/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F545D5-6FED-45C2-A1B7-B3C9ACCC9B30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Color Codes</t>
   </si>
@@ -121,12 +120,15 @@
   </si>
   <si>
     <t>0.020</t>
+  </si>
+  <si>
+    <t>0.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>24</v>
@@ -667,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>29</v>

--- a/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D88A8F-917C-4FBC-8AA4-02E91BDFB382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Color Codes</t>
   </si>
@@ -83,12 +78,6 @@
     <t/>
   </si>
   <si>
-    <t>Expected 24V PSU Load value</t>
-  </si>
-  <si>
-    <t>Expected 2nd 24V PSU Load value</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
@@ -98,12 +87,6 @@
     <t>Gallery</t>
   </si>
   <si>
-    <t>Expected 3rd 24V PSU Load value</t>
-  </si>
-  <si>
-    <t>NGC-1609</t>
-  </si>
-  <si>
     <t>PRN800</t>
   </si>
   <si>
@@ -113,22 +96,37 @@
     <t>Printers</t>
   </si>
   <si>
-    <t>verify24VPsuLoadOnAdditionDeletionOfAccessories</t>
-  </si>
-  <si>
-    <t>Verify 24V PSU Load on addition and deletion of Accessories</t>
-  </si>
-  <si>
     <t>0.020</t>
   </si>
   <si>
     <t>0.000</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Verify 5V PSU Load on addition and deletion of Accessories</t>
+  </si>
+  <si>
+    <t>verify5VPsuLoadOnAdditionDeletionOfAccessories</t>
+  </si>
+  <si>
+    <t>Main Processor 5V (A)</t>
+  </si>
+  <si>
+    <t>Expected 3rd 5V PSU Load value</t>
+  </si>
+  <si>
+    <t>Expected 2nd 5V PSU Load value</t>
+  </si>
+  <si>
+    <t>Expected 5V PSU Load value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,11 +533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,9 +551,10 @@
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="19.5546875" customWidth="1"/>
     <col min="10" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -560,19 +562,19 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -584,28 +586,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -622,25 +622,28 @@
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -657,22 +660,25 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D88A8F-917C-4FBC-8AA4-02E91BDFB382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -24,8 +23,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Printer 2 is not visible. Instead of it PLX800-E is visible.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Color Codes</t>
   </si>
@@ -90,44 +124,41 @@
     <t>PRN800</t>
   </si>
   <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Verify 5V PSU Load on addition and deletion of Accessories</t>
+  </si>
+  <si>
+    <t>verify5VPsuLoadOnAdditionDeletionOfAccessories</t>
+  </si>
+  <si>
+    <t>Expected 3rd 5V PSU Load value</t>
+  </si>
+  <si>
+    <t>Expected 2nd 5V PSU Load value</t>
+  </si>
+  <si>
+    <t>Expected 5V PSU Load value</t>
+  </si>
+  <si>
+    <t>5V Rail(A)</t>
+  </si>
+  <si>
     <t>Printer 2</t>
-  </si>
-  <si>
-    <t>Printers</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>Loading Details Name</t>
-  </si>
-  <si>
-    <t>Verify 5V PSU Load on addition and deletion of Accessories</t>
-  </si>
-  <si>
-    <t>verify5VPsuLoadOnAdditionDeletionOfAccessories</t>
-  </si>
-  <si>
-    <t>Main Processor 5V (A)</t>
-  </si>
-  <si>
-    <t>Expected 3rd 5V PSU Load value</t>
-  </si>
-  <si>
-    <t>Expected 2nd 5V PSU Load value</t>
-  </si>
-  <si>
-    <t>Expected 5V PSU Load value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +180,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -245,14 +289,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,31 +599,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -622,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
@@ -634,13 +678,13 @@
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -660,25 +704,25 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -688,5 +732,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_5V_Load_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,35 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D5F8C-5DD1-4273-8C75-CE739CA3934F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,9 +130,6 @@
     <t>Gallery</t>
   </si>
   <si>
-    <t>PRN800</t>
-  </si>
-  <si>
     <t>Printers</t>
   </si>
   <si>
@@ -152,12 +158,15 @@
   </si>
   <si>
     <t>Printer 2</t>
+  </si>
+  <si>
+    <t>PX-PR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,10 +586,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -611,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -623,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
@@ -666,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
@@ -678,13 +687,13 @@
         <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -704,25 +713,25 @@
         <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
